--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N2">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O2">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P2">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q2">
-        <v>89.51094722328132</v>
+        <v>279.9060199646667</v>
       </c>
       <c r="R2">
-        <v>805.5985250095318</v>
+        <v>2519.154179682</v>
       </c>
       <c r="S2">
-        <v>0.002089726426891003</v>
+        <v>0.007421763646754137</v>
       </c>
       <c r="T2">
-        <v>0.002089726426891003</v>
+        <v>0.007421763646754139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>152.862705</v>
       </c>
       <c r="O3">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P3">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q3">
-        <v>1657.294934793265</v>
+        <v>2985.051949005</v>
       </c>
       <c r="R3">
-        <v>14915.65441313939</v>
+        <v>26865.467541045</v>
       </c>
       <c r="S3">
-        <v>0.03869127888626905</v>
+        <v>0.07914924459857813</v>
       </c>
       <c r="T3">
-        <v>0.03869127888626904</v>
+        <v>0.07914924459857814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N4">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O4">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P4">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q4">
-        <v>226.03071153559</v>
+        <v>223.9187936393333</v>
       </c>
       <c r="R4">
-        <v>2034.27640382031</v>
+        <v>2015.269142754</v>
       </c>
       <c r="S4">
-        <v>0.005276922721046189</v>
+        <v>0.005937251234065022</v>
       </c>
       <c r="T4">
-        <v>0.005276922721046189</v>
+        <v>0.005937251234065022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N5">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O5">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P5">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q5">
-        <v>295.9691741249134</v>
+        <v>367.5976238386667</v>
       </c>
       <c r="R5">
-        <v>2663.722567124221</v>
+        <v>3308.378614548</v>
       </c>
       <c r="S5">
-        <v>0.006909709079171371</v>
+        <v>0.0097469239196192</v>
       </c>
       <c r="T5">
-        <v>0.006909709079171371</v>
+        <v>0.0097469239196192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N6">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O6">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P6">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q6">
-        <v>131.7366676579781</v>
+        <v>183.2974000223333</v>
       </c>
       <c r="R6">
-        <v>1185.630008921803</v>
+        <v>1649.676600201</v>
       </c>
       <c r="S6">
-        <v>0.003075529913773851</v>
+        <v>0.004860166923891207</v>
       </c>
       <c r="T6">
-        <v>0.003075529913773851</v>
+        <v>0.004860166923891207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N7">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O7">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P7">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q7">
-        <v>328.2760959299567</v>
+        <v>292.6652411433333</v>
       </c>
       <c r="R7">
-        <v>2954.484863369611</v>
+        <v>2633.98717029</v>
       </c>
       <c r="S7">
-        <v>0.007663947866289698</v>
+        <v>0.007760076927464133</v>
       </c>
       <c r="T7">
-        <v>0.007663947866289698</v>
+        <v>0.007760076927464133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N8">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O8">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P8">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q8">
-        <v>33.453275363364</v>
+        <v>58.07946949674201</v>
       </c>
       <c r="R8">
-        <v>301.079478270276</v>
+        <v>522.7152254706781</v>
       </c>
       <c r="S8">
-        <v>0.0007810016066358944</v>
+        <v>0.001539988655435487</v>
       </c>
       <c r="T8">
-        <v>0.0007810016066358945</v>
+        <v>0.001539988655435487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>152.862705</v>
       </c>
       <c r="O9">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P9">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q9">
         <v>619.3872987808951</v>
@@ -1013,10 +1013,10 @@
         <v>5574.485689028056</v>
       </c>
       <c r="S9">
-        <v>0.01446024253898652</v>
+        <v>0.01642317710041955</v>
       </c>
       <c r="T9">
-        <v>0.01446024253898652</v>
+        <v>0.01642317710041955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N10">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O10">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P10">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q10">
-        <v>84.47533925337001</v>
+        <v>46.462325985574</v>
       </c>
       <c r="R10">
-        <v>760.2780532803301</v>
+        <v>418.160933870166</v>
       </c>
       <c r="S10">
-        <v>0.001972164906466721</v>
+        <v>0.001231957790643097</v>
       </c>
       <c r="T10">
-        <v>0.001972164906466721</v>
+        <v>0.001231957790643097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N11">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O11">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P11">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q11">
-        <v>110.613713609467</v>
+        <v>76.27515472338801</v>
       </c>
       <c r="R11">
-        <v>995.5234224852031</v>
+        <v>686.4763925104921</v>
       </c>
       <c r="S11">
-        <v>0.002582392519315611</v>
+        <v>0.002022450858856298</v>
       </c>
       <c r="T11">
-        <v>0.002582392519315612</v>
+        <v>0.002022450858856298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N12">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O12">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P12">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q12">
-        <v>49.234458525181</v>
+        <v>38.03353623753101</v>
       </c>
       <c r="R12">
-        <v>443.1101267266291</v>
+        <v>342.3018261377791</v>
       </c>
       <c r="S12">
-        <v>0.001149429788035798</v>
+        <v>0.001008466758381425</v>
       </c>
       <c r="T12">
-        <v>0.001149429788035798</v>
+        <v>0.001008466758381425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N13">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O13">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P13">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q13">
-        <v>122.687905479997</v>
+        <v>60.72696095599001</v>
       </c>
       <c r="R13">
-        <v>1104.191149319973</v>
+        <v>546.54264860391</v>
       </c>
       <c r="S13">
-        <v>0.002864277122460962</v>
+        <v>0.001610187416683349</v>
       </c>
       <c r="T13">
-        <v>0.002864277122460962</v>
+        <v>0.001610187416683349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N14">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O14">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P14">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q14">
-        <v>415.7446779776186</v>
+        <v>705.7077855559625</v>
       </c>
       <c r="R14">
-        <v>3741.702101798568</v>
+        <v>6351.370070003662</v>
       </c>
       <c r="S14">
-        <v>0.009705993147876679</v>
+        <v>0.01871198193140599</v>
       </c>
       <c r="T14">
-        <v>0.009705993147876681</v>
+        <v>0.01871198193140599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>152.862705</v>
       </c>
       <c r="O15">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P15">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q15">
-        <v>7697.511537453111</v>
+        <v>7526.006053630956</v>
       </c>
       <c r="R15">
-        <v>69277.603837078</v>
+        <v>67734.05448267859</v>
       </c>
       <c r="S15">
-        <v>0.179706435694274</v>
+        <v>0.1995535435112853</v>
       </c>
       <c r="T15">
-        <v>0.179706435694274</v>
+        <v>0.1995535435112853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N16">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O16">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P16">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q16">
-        <v>1049.82762774266</v>
+        <v>564.5510447525349</v>
       </c>
       <c r="R16">
-        <v>9448.44864968394</v>
+        <v>5080.959402772814</v>
       </c>
       <c r="S16">
-        <v>0.02450932098731626</v>
+        <v>0.01496918294651306</v>
       </c>
       <c r="T16">
-        <v>0.02450932098731626</v>
+        <v>0.01496918294651306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N17">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O17">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P17">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q17">
-        <v>1374.665477295495</v>
+        <v>926.7985916400299</v>
       </c>
       <c r="R17">
-        <v>12371.98929565945</v>
+        <v>8341.187324760269</v>
       </c>
       <c r="S17">
-        <v>0.03209299940568567</v>
+        <v>0.02457424851443066</v>
       </c>
       <c r="T17">
-        <v>0.03209299940568568</v>
+        <v>0.02457424851443065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N18">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O18">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P18">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q18">
-        <v>611.8672650920802</v>
+        <v>462.1351205102879</v>
       </c>
       <c r="R18">
-        <v>5506.805385828722</v>
+        <v>4159.216084592591</v>
       </c>
       <c r="S18">
-        <v>0.01428467950878612</v>
+        <v>0.01225360439809247</v>
       </c>
       <c r="T18">
-        <v>0.01428467950878613</v>
+        <v>0.01225360439809247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N19">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O19">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P19">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q19">
-        <v>1524.718975989701</v>
+        <v>737.8767318492656</v>
       </c>
       <c r="R19">
-        <v>13722.47078390731</v>
+        <v>6640.89058664339</v>
       </c>
       <c r="S19">
-        <v>0.0355961548452829</v>
+        <v>0.01956494792400651</v>
       </c>
       <c r="T19">
-        <v>0.0355961548452829</v>
+        <v>0.01956494792400651</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N20">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O20">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P20">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q20">
-        <v>26.81421502770666</v>
+        <v>33.40147017534733</v>
       </c>
       <c r="R20">
-        <v>241.32793524936</v>
+        <v>300.613231578126</v>
       </c>
       <c r="S20">
-        <v>0.0006260058182599841</v>
+        <v>0.0008856466078394035</v>
       </c>
       <c r="T20">
-        <v>0.0006260058182599842</v>
+        <v>0.0008856466078394037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>152.862705</v>
       </c>
       <c r="O21">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P21">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q21">
-        <v>496.4651154347001</v>
+        <v>356.2092864567151</v>
       </c>
       <c r="R21">
-        <v>4468.1860389123</v>
+        <v>3205.883578110435</v>
       </c>
       <c r="S21">
-        <v>0.01159049595537676</v>
+        <v>0.009444959894733242</v>
       </c>
       <c r="T21">
-        <v>0.01159049595537676</v>
+        <v>0.009444959894733243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N22">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O22">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P22">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q22">
-        <v>67.71055708820001</v>
+        <v>26.72045748922467</v>
       </c>
       <c r="R22">
-        <v>609.3950137938</v>
+        <v>240.484117403022</v>
       </c>
       <c r="S22">
-        <v>0.001580773580395326</v>
+        <v>0.0007084982310962823</v>
       </c>
       <c r="T22">
-        <v>0.001580773580395326</v>
+        <v>0.0007084982310962823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N23">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O23">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P23">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q23">
-        <v>88.66156959284221</v>
+        <v>43.86579849452934</v>
       </c>
       <c r="R23">
-        <v>797.9541263355799</v>
+        <v>394.792186450764</v>
       </c>
       <c r="S23">
-        <v>0.002069896820169145</v>
+        <v>0.001163110349122312</v>
       </c>
       <c r="T23">
-        <v>0.002069896820169145</v>
+        <v>0.001163110349122312</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N24">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O24">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P24">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q24">
-        <v>39.46350075821555</v>
+        <v>21.87306525539367</v>
       </c>
       <c r="R24">
-        <v>355.17150682394</v>
+        <v>196.857587298543</v>
       </c>
       <c r="S24">
-        <v>0.0009213165874154295</v>
+        <v>0.0005799686643969071</v>
       </c>
       <c r="T24">
-        <v>0.0009213165874154298</v>
+        <v>0.0005799686643969071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N25">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O25">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P25">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q25">
-        <v>98.33954502530888</v>
+        <v>34.92404102149667</v>
       </c>
       <c r="R25">
-        <v>885.0559052277798</v>
+        <v>314.31636919347</v>
       </c>
       <c r="S25">
-        <v>0.002295839251205862</v>
+        <v>0.0009260178758706709</v>
       </c>
       <c r="T25">
-        <v>0.002295839251205862</v>
+        <v>0.0009260178758706709</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N26">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O26">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P26">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q26">
-        <v>392.4200190183786</v>
+        <v>897.3456255180095</v>
       </c>
       <c r="R26">
-        <v>3531.780171165408</v>
+        <v>8076.110629662086</v>
       </c>
       <c r="S26">
-        <v>0.009161454655799744</v>
+        <v>0.02379329727486429</v>
       </c>
       <c r="T26">
-        <v>0.009161454655799744</v>
+        <v>0.0237932972748643</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>152.862705</v>
       </c>
       <c r="O27">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P27">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q27">
-        <v>7265.655542761161</v>
+        <v>9569.723826310616</v>
       </c>
       <c r="R27">
-        <v>65390.89988485044</v>
+        <v>86127.51443679554</v>
       </c>
       <c r="S27">
-        <v>0.1696243070528698</v>
+        <v>0.2537431256839514</v>
       </c>
       <c r="T27">
-        <v>0.1696243070528697</v>
+        <v>0.2537431256839514</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N28">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O28">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P28">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q28">
-        <v>990.9288067109601</v>
+        <v>717.8571935283491</v>
       </c>
       <c r="R28">
-        <v>8918.35926039864</v>
+        <v>6460.714741755142</v>
       </c>
       <c r="S28">
-        <v>0.02313426657619889</v>
+        <v>0.01903412589397752</v>
       </c>
       <c r="T28">
-        <v>0.02313426657619889</v>
+        <v>0.01903412589397752</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N29">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O29">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P29">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q29">
-        <v>1297.542172682358</v>
+        <v>1178.474545649578</v>
       </c>
       <c r="R29">
-        <v>11677.87955414122</v>
+        <v>10606.2709108462</v>
       </c>
       <c r="S29">
-        <v>0.03029247541639962</v>
+        <v>0.03124748636214118</v>
       </c>
       <c r="T29">
-        <v>0.03029247541639962</v>
+        <v>0.03124748636214118</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N30">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O30">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P30">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q30">
-        <v>577.5394768062035</v>
+        <v>587.6298055312582</v>
       </c>
       <c r="R30">
-        <v>5197.855291255833</v>
+        <v>5288.668249781324</v>
       </c>
       <c r="S30">
-        <v>0.01348326148581767</v>
+        <v>0.01558112086689535</v>
       </c>
       <c r="T30">
-        <v>0.01348326148581767</v>
+        <v>0.01558112086689535</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N31">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O31">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P31">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q31">
-        <v>1439.177171109265</v>
+        <v>938.2501809510744</v>
       </c>
       <c r="R31">
-        <v>12952.59453998338</v>
+        <v>8444.251628559668</v>
       </c>
       <c r="S31">
-        <v>0.03359909218638046</v>
+        <v>0.02487788967676434</v>
       </c>
       <c r="T31">
-        <v>0.03359909218638046</v>
+        <v>0.02487788967676434</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.752051999999999</v>
+        <v>4.777939333333333</v>
       </c>
       <c r="N32">
-        <v>8.256155999999999</v>
+        <v>14.333818</v>
       </c>
       <c r="O32">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514587</v>
       </c>
       <c r="P32">
-        <v>0.0328020885953846</v>
+        <v>0.06460706022514588</v>
       </c>
       <c r="Q32">
-        <v>447.0953351586959</v>
+        <v>462.1644512640308</v>
       </c>
       <c r="R32">
-        <v>4023.858016428264</v>
+        <v>4159.480061376278</v>
       </c>
       <c r="S32">
-        <v>0.0104379069399213</v>
+        <v>0.01225438210884656</v>
       </c>
       <c r="T32">
-        <v>0.0104379069399213</v>
+        <v>0.01225438210884656</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>152.862705</v>
       </c>
       <c r="O33">
-        <v>0.6073305776126495</v>
+        <v>0.6890006548230002</v>
       </c>
       <c r="P33">
-        <v>0.6073305776126494</v>
+        <v>0.6890006548230003</v>
       </c>
       <c r="Q33">
-        <v>8277.96886653303</v>
+        <v>4928.743212384895</v>
       </c>
       <c r="R33">
-        <v>74501.71979879728</v>
+        <v>44358.68891146405</v>
       </c>
       <c r="S33">
-        <v>0.1932578174848734</v>
+        <v>0.1306866040340326</v>
       </c>
       <c r="T33">
-        <v>0.1932578174848734</v>
+        <v>0.1306866040340326</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.94941</v>
+        <v>3.822248666666667</v>
       </c>
       <c r="N34">
-        <v>20.84823</v>
+        <v>11.466746</v>
       </c>
       <c r="O34">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="P34">
-        <v>0.08283097939488489</v>
+        <v>0.05168425812358233</v>
       </c>
       <c r="Q34">
-        <v>1128.99349035018</v>
+        <v>369.7216172881518</v>
       </c>
       <c r="R34">
-        <v>10160.94141315162</v>
+        <v>3327.494555593366</v>
       </c>
       <c r="S34">
-        <v>0.0263575306234615</v>
+        <v>0.009803242027287344</v>
       </c>
       <c r="T34">
-        <v>0.02635753062346151</v>
+        <v>0.009803242027287344</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.099697666666666</v>
+        <v>6.274817333333334</v>
       </c>
       <c r="N35">
-        <v>27.299093</v>
+        <v>18.824452</v>
       </c>
       <c r="O35">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="P35">
-        <v>0.1084605556338378</v>
+        <v>0.08484777078021835</v>
       </c>
       <c r="Q35">
-        <v>1478.326855059838</v>
+        <v>606.9556993765435</v>
       </c>
       <c r="R35">
-        <v>13304.94169553854</v>
+        <v>5462.601294388892</v>
       </c>
       <c r="S35">
-        <v>0.03451308239309636</v>
+        <v>0.0160935507760487</v>
       </c>
       <c r="T35">
-        <v>0.03451308239309637</v>
+        <v>0.0160935507760487</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.050299666666667</v>
+        <v>3.128849666666667</v>
       </c>
       <c r="N36">
-        <v>12.150899</v>
+        <v>9.386549</v>
       </c>
       <c r="O36">
-        <v>0.04827608217572078</v>
+        <v>0.04230815101386684</v>
       </c>
       <c r="P36">
-        <v>0.04827608217572079</v>
+        <v>0.04230815101386685</v>
       </c>
       <c r="Q36">
-        <v>658.0072204164341</v>
+        <v>302.6499476865088</v>
       </c>
       <c r="R36">
-        <v>5922.064983747907</v>
+        <v>2723.849529178579</v>
       </c>
       <c r="S36">
-        <v>0.01536186489189191</v>
+        <v>0.008024823402209483</v>
       </c>
       <c r="T36">
-        <v>0.01536186489189192</v>
+        <v>0.008024823402209485</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.09298766666667</v>
+        <v>4.995736666666667</v>
       </c>
       <c r="N37">
-        <v>30.278963</v>
+        <v>14.98721</v>
       </c>
       <c r="O37">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="P37">
-        <v>0.1202997165875224</v>
+        <v>0.06755210503418618</v>
       </c>
       <c r="Q37">
-        <v>1639.695653854258</v>
+        <v>483.2317311151011</v>
       </c>
       <c r="R37">
-        <v>14757.26088468832</v>
+        <v>4349.08558003591</v>
       </c>
       <c r="S37">
-        <v>0.03828040531590248</v>
+        <v>0.01281298521339717</v>
       </c>
       <c r="T37">
-        <v>0.03828040531590249</v>
+        <v>0.01281298521339717</v>
       </c>
     </row>
   </sheetData>
